--- a/Output/Robustness/EdgeWeights_education0.xlsx
+++ b/Output/Robustness/EdgeWeights_education0.xlsx
@@ -17,70 +17,70 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">pm_ineq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bm_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jm_ineq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jm_red_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jm_red_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_fam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_edup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_ppl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_bri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_rel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bp_red_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bp_red_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bp_resp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bp_educ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bp_need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bp_merit</t>
+    <t xml:space="preserve">ineq_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prog_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ineq_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redis_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redis_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edupar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bribes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redis_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redis_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit</t>
   </si>
 </sst>
 </file>
@@ -412,8 +412,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="7.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="6.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="6.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
